--- a/EV-Yearly-anu.xlsx
+++ b/EV-Yearly-anu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkhan\Documents\Anu\Rutgers\BootcampProj1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkhan\Documents\Anu\Rutgers\BootcampProj1\presentation_branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EV Annual'!$A$1:$BD$40</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="85" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -873,9 +873,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -883,6 +880,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="163">
@@ -1149,6 +1149,72 @@
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Electric Vehicles Market Share</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24329488064258109"/>
+          <c:y val="6.3632444062145813E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1219,6 +1285,1630 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="59"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="60"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="61"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="62"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="63"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="64"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="65"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="66"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="67"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="68"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="69"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="73"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="74"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="75"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="76"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="77"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="78"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="79"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="80"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="81"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="82"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="83"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="84"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="85"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="86"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="87"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="88"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="89"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="90"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="91"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="92"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="93"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="94"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="95"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="96"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="97"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="98"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="99"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="100"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="101"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="102"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="103"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="104"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="105"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="106"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="107"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="108"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="109"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="110"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="111"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="112"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="113"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="114"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="115"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="116"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="117"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="118"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="119"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1252,6 +2942,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1267,6 +2962,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1282,6 +2982,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1297,6 +3002,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1312,6 +3022,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1327,6 +3042,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1344,6 +3064,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1361,6 +3086,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1378,6 +3108,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1395,6 +3130,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1412,6 +3152,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1429,6 +3174,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1447,6 +3197,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1465,6 +3220,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1483,6 +3243,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1501,6 +3266,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1519,6 +3289,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -1537,6 +3312,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -1554,6 +3334,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1571,6 +3356,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -1588,6 +3378,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -1605,6 +3400,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1622,6 +3422,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -1639,6 +3444,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -1657,6 +3467,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -1675,6 +3490,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -1693,6 +3513,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -1711,6 +3536,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -1729,6 +3559,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -2010,6 +3845,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2025,6 +3865,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2040,6 +3885,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2055,6 +3905,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2070,6 +3925,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2085,6 +3945,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2102,6 +3967,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2119,6 +3989,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2136,6 +4011,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2153,6 +4033,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2170,6 +4055,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2187,6 +4077,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2205,6 +4100,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2223,6 +4123,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -2241,6 +4146,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -2259,6 +4169,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -2277,6 +4192,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -2295,6 +4215,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -2312,6 +4237,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -2329,6 +4259,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -2346,6 +4281,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -2363,6 +4303,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -2380,6 +4325,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -2397,6 +4347,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -2415,6 +4370,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -2433,6 +4393,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -2451,6 +4416,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -2469,6 +4439,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -2487,6 +4462,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -2768,6 +4748,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2783,6 +4768,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2798,6 +4788,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2813,6 +4808,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2828,6 +4828,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2843,6 +4848,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2860,6 +4870,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2877,6 +4892,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2894,6 +4914,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2911,6 +4936,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2928,6 +4958,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2945,6 +4980,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2963,6 +5003,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2981,6 +5026,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -2999,6 +5049,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000091-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -3017,6 +5072,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000093-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -3035,6 +5095,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000095-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -3053,6 +5118,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000097-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -3070,6 +5140,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000099-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -3087,6 +5162,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009B-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -3104,6 +5184,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009D-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -3121,6 +5206,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009F-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -3138,6 +5228,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A1-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -3155,6 +5250,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A3-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -3173,6 +5273,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A5-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -3191,6 +5296,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A7-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -3209,6 +5319,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A9-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -3227,6 +5342,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AB-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -3245,6 +5365,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AD-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -3526,6 +5651,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AF-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3541,6 +5671,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B1-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3556,6 +5691,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B3-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3571,6 +5711,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B5-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3586,6 +5731,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B7-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3601,6 +5751,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B9-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3618,6 +5773,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BB-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3635,6 +5795,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BD-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3652,6 +5817,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BF-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3669,6 +5839,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C1-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -3686,6 +5861,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C3-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -3703,6 +5883,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C5-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -3721,6 +5906,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C7-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -3739,6 +5929,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C9-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -3757,6 +5952,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CB-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -3775,6 +5975,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CD-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -3793,6 +5998,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CF-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -3811,6 +6021,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D1-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -3828,6 +6043,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D3-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -3845,6 +6065,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D5-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -3862,6 +6087,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D7-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -3879,6 +6109,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D9-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -3896,6 +6131,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000DB-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -3913,6 +6153,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000DD-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -3931,6 +6176,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000DF-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -3949,6 +6199,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E1-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -3967,6 +6222,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E3-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -3985,6 +6245,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E5-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -4003,6 +6268,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000E7-7096-4B0A-9B6E-0225A0FF39FD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -4353,7 +6623,6 @@
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
@@ -5556,7 +7825,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:E51" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -5808,7 +8077,7 @@
     <dataField name="Sum of 2015" fld="6" baseField="0" baseItem="0"/>
     <dataField name="Sum of 2014" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="120">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5841,6 +8110,1746 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="40">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="41">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="42">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="43">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="44">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="45">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="46">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="47">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="48">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="49">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="56">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="57">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="58">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="59">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="60">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="61">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="62">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="63">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="64">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="65">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="66">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="67">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="68">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="69">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="70">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="71">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="72">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="73">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="74">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="75">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="76">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="77">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="78">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="79">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="80">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="81">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="82">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="83">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="84">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="85">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="86">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="87">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="88">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="89">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="90">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="91">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="92">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="93">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="94">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="95">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="96">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="97">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="98">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="99">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="100">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="101">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="102">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="103">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="104">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="105">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="106">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="107">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="108">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="109">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="110">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="111">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="112">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="113">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="114">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="115">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="116">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="117">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="118">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="119">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
@@ -6193,7 +10202,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6201,7 +10210,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6218,802 +10227,802 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>11243</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>15214</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>14161</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>6647</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>707</v>
       </c>
-      <c r="C5" s="24">
-        <v>0</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="C5" s="23">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>6276</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>7625</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>11004</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>6092</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>488</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>1594</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>2265</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>3772</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>5995</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>892</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>17</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>534</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>1024</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>1310</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>17</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>534</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>1024</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>1310</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>20372</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>27774</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>18022</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>19950</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>23</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>3035</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>2629</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>20349</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>24739</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>15393</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>18805</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>5380</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>3897</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>4569</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>1503</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>5380</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>3897</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>4569</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>1503</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>19589</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>24767</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>18923</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>21947</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>8140</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>7957</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>7591</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>8433</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>1817</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>872</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>1582</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>1964</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>9632</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>15938</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>9750</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>11550</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>2024</v>
       </c>
-      <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
+      <c r="C20" s="23">
+        <v>0</v>
+      </c>
+      <c r="D20" s="23">
         <v>65</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>856</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="24">
+      <c r="A21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="23">
         <v>903</v>
       </c>
-      <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23">
         <v>63</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>1121</v>
       </c>
-      <c r="C22" s="24">
-        <v>0</v>
-      </c>
-      <c r="D22" s="24">
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+      <c r="D22" s="23">
         <v>2</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>2157</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>1728</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <v>1015</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>2157</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>1728</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>1015</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>1410</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>1182</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>2024</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>744</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>632</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>1906</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>666</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>550</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>118</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>6</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>94</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>115</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>6</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>94</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="23">
         <v>115</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>11230</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>14006</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>17269</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>30200</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>11230</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>14006</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>17269</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>30200</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>1592</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>2504</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="23">
         <v>1570</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>991</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>1574</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>2111</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="23">
         <v>1163</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <v>18</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="23">
         <v>393</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>407</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>879</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="23">
         <v>544</v>
       </c>
-      <c r="C35" s="24">
-        <v>0</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
+      <c r="C35" s="23">
+        <v>0</v>
+      </c>
+      <c r="D35" s="23">
+        <v>0</v>
+      </c>
+      <c r="E35" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="23">
         <v>544</v>
       </c>
-      <c r="C36" s="24">
-        <v>0</v>
-      </c>
-      <c r="D36" s="24">
-        <v>0</v>
-      </c>
-      <c r="E36" s="24">
+      <c r="C36" s="23">
+        <v>0</v>
+      </c>
+      <c r="D36" s="23">
+        <v>0</v>
+      </c>
+      <c r="E36" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <v>544</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <v>657</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23">
         <v>1387</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <v>2594</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="23">
         <v>544</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <v>657</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="23">
         <v>1387</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>2594</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="23">
         <v>48375</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <v>47184</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="23">
         <v>26408</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <v>16750</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="23">
         <v>27060</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="23">
         <v>29156</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="23">
         <v>26200</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <v>16750</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="23">
         <v>21315</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="23">
         <v>18028</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="23">
         <v>208</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="23">
         <v>20936</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="23">
         <v>2474</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="23">
         <v>4209</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <v>14448</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="23">
         <v>20936</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="23">
         <v>2474</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="23">
         <v>4191</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <v>13264</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="24">
-        <v>0</v>
-      </c>
-      <c r="C44" s="24">
-        <v>0</v>
-      </c>
-      <c r="D44" s="24">
+      <c r="B44" s="23">
+        <v>0</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0</v>
+      </c>
+      <c r="D44" s="23">
         <v>18</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <v>1184</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="23">
         <v>531</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="23">
         <v>2020</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="23">
         <v>86</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="23">
         <v>531</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="23">
         <v>2020</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="23">
         <v>86</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="23">
         <v>3534</v>
       </c>
-      <c r="C47" s="24">
-        <v>0</v>
-      </c>
-      <c r="D47" s="24">
+      <c r="C47" s="23">
+        <v>0</v>
+      </c>
+      <c r="D47" s="23">
         <v>4232</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="23">
         <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="23">
         <v>3534</v>
       </c>
-      <c r="C48" s="24">
-        <v>0</v>
-      </c>
-      <c r="D48" s="24">
+      <c r="C48" s="23">
+        <v>0</v>
+      </c>
+      <c r="D48" s="23">
         <v>4232</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="23">
         <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="23">
         <v>149484</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="23">
         <v>144035</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="23">
         <v>115079</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="23">
         <v>118773</v>
       </c>
     </row>
@@ -7926,33 +11935,33 @@
   <sheetData>
     <row r="1" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
